--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45547</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>45876.59537037037</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45688</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>45487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>45688</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44383</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44768</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44834</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>45805.56380787037</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>45093</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>46058</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44834</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>45840.52479166666</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>44860</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45141</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>45722.31175925926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>44469.75813657408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>45722.43866898148</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45734.65587962963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>45744.34618055556</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>44243</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44308</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44722</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44635.31061342593</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44828.29289351852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44762</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44307</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44302</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>44615.35090277778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>44358.40847222223</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44379.68478009259</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>44340.71798611111</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44473</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44293</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44326.59270833333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>44421</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>44302</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>44509</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44383</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>44575.40140046296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44345</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>44377</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44862</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>44365</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44266.62465277778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>44504</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>44581</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44868</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44834</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44287</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44414</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44763.54887731482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44298.50453703704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44424.25194444445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44424.26225694444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44280</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44466.56734953704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44344</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44641.87587962963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44797.49979166667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44351.30484953704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44657</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44588.65645833333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44876</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>44876</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44638</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>44466</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>44699</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44371.58202546297</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44389</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44834.29305555556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44582.52271990741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44886.58752314815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44376</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44398</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44874</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44684.44733796296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44588</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44346.77275462963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44354.32018518518</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44596</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44684.44885416667</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44266.6136574074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44264.36931712963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>44811</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>44980</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>45251</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>45271</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>45775.41575231482</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>44902.69207175926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>44970.38643518519</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>45054</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>45097.72543981481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>45097</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>45272</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>45642.38094907408</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>45581.33299768518</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45259</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44774</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>45487.30003472222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>45687.32652777778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>45341</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>45313</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>45737.36127314815</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>45300</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>45609.28594907407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>45749</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>45104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>45741.66375</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>45720.83274305556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>45583.51619212963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44918</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>45743.41180555556</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>45672.48665509259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44552.76177083333</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>45724</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>45352.31376157407</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>45455.64726851852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>45336.58550925926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>45680.54049768519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>44896</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>44875.85422453703</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45574.64112268519</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>45336.60148148148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>45749.45077546296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>45434.36398148148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>44649.52972222222</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>45561</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>45487.29454861111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>45884.54711805555</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>45804</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>45804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>45805.37641203704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>44894.67380787037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>45769.64644675926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>45804.40961805556</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>45845</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>44649</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44935.30733796296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>45888.4928125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>45476.60086805555</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>45352.26722222222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>44981</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>45811.74379629629</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>44295.49506944444</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>45182</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>45813.44809027778</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>45580.61172453704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44365</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>45320</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>45469.55396990741</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>45469</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44841</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>45851</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>45539</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>45897.65458333334</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>45607</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45741.66020833333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>45323</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45310</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45600.73796296296</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>45884.43606481481</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10707,7 +10707,7 @@
         <v>44543.62753472223</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>45401</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>45905.51859953703</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>45905.39145833333</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>45905.60706018518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>45910</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>45904.57483796297</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         <v>45713</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11163,7 +11163,7 @@
         <v>45477.81185185185</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11220,7 +11220,7 @@
         <v>45825.44701388889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         <v>45600.73547453704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11334,7 +11334,7 @@
         <v>45909.42924768518</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11391,7 +11391,7 @@
         <v>45908.63833333334</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>45908</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>45824.45068287037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>45824.47262731481</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>45908.40140046296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>45909</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>45825.45068287037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>45911.50188657407</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>45824.56662037037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>45411.34289351852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>44361.57765046296</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>45912.52008101852</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45058</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>45915.63590277778</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>45915</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44574.57737268518</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>45740.58649305555</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>45007</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44974</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>45736.6059837963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44980</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44649</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>45918.51079861111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>45208</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>45925.5783912037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44886.5540625</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>45929.41274305555</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>45929.45868055556</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>45926.46386574074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>45835.72510416667</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>45665.32594907407</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>45315</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>45929</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>45932.63645833333</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>45932.6437962963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>45932.64760416667</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>45932.3327662037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44711</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>45932.65140046296</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44376</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44376</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>45839.85123842592</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>45839.84752314815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>45582.74878472222</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>45490.55327546296</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>45510</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>45085.26358796296</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>45159</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>45938</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>45940.4803125</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>45771</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>45275</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>45085.59748842593</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>45945.35055555555</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>45742.29474537037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>45945.39800925926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>45945.34140046296</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45946.58216435185</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>45574.31206018518</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>45849.59416666667</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45736.33456018518</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45852.42135416667</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>45364.69334490741</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>45364.69854166666</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>45852.58422453704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>45852.61472222222</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>45852.6178125</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>45854.58971064815</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>45744.33158564815</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>45952.65193287037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45623</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44622.41708333333</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45866.37137731481</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44363.3569212963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45792.4404050926</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45869.50164351852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45200</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44829.7769675926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45954.6484837963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>45835.39423611111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>44481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>44818</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>45561.84291666667</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>45590</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>44545.52674768519</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>44827.4875462963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>44767</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>44767.79451388889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>44831</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>45392.545625</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45530</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>44837</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44370</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44982.54386574074</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>45365.89541666667</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16831,7 +16831,7 @@
         <v>45590</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
         <v>45271</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>44949</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         <v>45271</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         <v>45361</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>45436</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>45313.53454861111</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>45713.74472222223</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>45597</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>45622</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>45873.71965277778</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>45635</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>44347.33357638889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>44831</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>45875</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>45819.645625</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>45222.40752314815</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>45695.49813657408</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>45876.57193287037</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>45589.55373842592</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>45960.5499537037</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>45706.56258101852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>45960.36910879629</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>45877.32945601852</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44867</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>45960.38479166666</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>45881.48006944444</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>45075</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>45742.27975694444</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18494,7 +18494,7 @@
         <v>45055</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18551,7 +18551,7 @@
         <v>45343</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>45246.61464120371</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>45971.29921296296</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>45771.57631944444</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>45436</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>45328</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44749.48328703704</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>45973.38171296296</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>45972.6513425926</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>45974.70818287037</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>45279</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>45216</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44615.32111111111</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44279</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>45587</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>45758.47384259259</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>45090</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>45750.63847222222</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45979.62216435185</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45978.59868055556</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>45978.59575231482</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>45722.30659722222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44511</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44447.51398148148</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44341.46094907408</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44235</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45401</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>45980.31319444445</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>45400.55888888889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>45224.58638888889</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44896.81578703703</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>45300</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>45513</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44935.30976851852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44659.48269675926</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>46024.40092592593</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>45261</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>44620</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>45985.5621875</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         <v>45985.5978587963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>44595.68164351852</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20903,7 +20903,7 @@
         <v>44386</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45986.61699074074</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>44967</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44904.61438657407</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>45988</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21193,7 +21193,7 @@
         <v>44641.86440972222</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44470</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>45246</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>45246.61611111111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>45246.63079861111</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>45359.2549074074</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44236</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>45593</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>45618.83905092593</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44811</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>45372</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>45734.62524305555</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21877,7 +21877,7 @@
         <v>45717.75037037037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21934,7 +21934,7 @@
         <v>45580.6241087963</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21991,7 +21991,7 @@
         <v>45302</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22048,7 +22048,7 @@
         <v>45705.46913194445</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22105,7 +22105,7 @@
         <v>45994.51789351852</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22162,7 +22162,7 @@
         <v>45994.52350694445</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>45994.52712962963</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>44797</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
         <v>45762</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22390,7 +22390,7 @@
         <v>44657</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22447,7 +22447,7 @@
         <v>44910.39135416667</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22504,7 +22504,7 @@
         <v>44644.39805555555</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22561,7 +22561,7 @@
         <v>44649</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22618,7 +22618,7 @@
         <v>46041</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22675,7 +22675,7 @@
         <v>45740</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>46003.36679398148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>45638.42776620371</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22846,7 +22846,7 @@
         <v>44628.26447916667</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>46003.37913194444</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45722.31386574074</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>44981.65555555555</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45366.6443287037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>44368</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>46007</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>46007.29109953704</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44652.35287037037</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>46047.41975694444</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>44657.74282407408</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>44270.4015162037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>46007</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>46047.3946412037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>46007.67482638889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>45075</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23758,7 +23758,7 @@
         <v>45181.63614583333</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>45678.55563657408</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>45359.25248842593</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44470</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>46008.28998842592</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>45574.51304398148</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>45197</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>46055.57247685185</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24219,7 +24219,7 @@
         <v>45404.75238425926</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24276,7 +24276,7 @@
         <v>45701.31181712963</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24333,7 +24333,7 @@
         <v>44533</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24390,7 +24390,7 @@
         <v>44659.65420138889</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24447,7 +24447,7 @@
         <v>46010.57032407408</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24504,7 +24504,7 @@
         <v>45281</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>45210.56701388889</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>46014.37304398148</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>46014.38310185185</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>46014.38857638889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>46014.39244212963</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44851</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>46014.38018518518</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>46008.31253472222</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25017,7 +25017,7 @@
         <v>45349</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25074,7 +25074,7 @@
         <v>45775.61783564815</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25131,7 +25131,7 @@
         <v>45582.75208333333</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>45411.62619212963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44834</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>45238.56739583334</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>45600</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>45509</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>45369</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44734.49697916667</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>45302.34966435185</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44812</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>45224</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>45155</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44376</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25882,7 +25882,7 @@
         <v>45140</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         <v>45140</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25996,7 +25996,7 @@
         <v>44441</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26053,7 +26053,7 @@
         <v>45058</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
         <v>45434.42556712963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>45196</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44349</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>45197</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>45706</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>45762.69204861111</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45397.65515046296</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26514,7 +26514,7 @@
         <v>45607.53498842593</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26571,7 +26571,7 @@
         <v>45772.3915162037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26628,7 +26628,7 @@
         <v>45700.64099537037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26685,7 +26685,7 @@
         <v>45722.28130787037</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26742,7 +26742,7 @@
         <v>44770.71671296296</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26799,7 +26799,7 @@
         <v>44985</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26856,7 +26856,7 @@
         <v>45422</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26913,7 +26913,7 @@
         <v>44890.61185185185</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>45090.54905092593</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45246.63157407408</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27084,7 +27084,7 @@
         <v>45140</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>45014</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>45567.27173611111</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>45344</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27312,7 +27312,7 @@
         <v>44457</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27369,7 +27369,7 @@
         <v>45716.44537037037</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         <v>45714.58465277778</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27483,7 +27483,7 @@
         <v>45770.57915509259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27540,7 +27540,7 @@
         <v>45708.40592592592</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>45579.46918981482</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>45744.32753472222</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>45457.33523148148</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27773,7 +27773,7 @@
         <v>45744.64173611111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27830,7 +27830,7 @@
         <v>45320</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27887,7 +27887,7 @@
         <v>45743.74923611111</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>45329</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28001,7 +28001,7 @@
         <v>44855</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28058,7 +28058,7 @@
         <v>44981.64929398148</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28115,7 +28115,7 @@
         <v>44722</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45008</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28229,7 +28229,7 @@
         <v>45272</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28286,7 +28286,7 @@
         <v>45706</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>45743.52512731482</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28405,7 +28405,7 @@
         <v>45743.68034722222</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28462,7 +28462,7 @@
         <v>45531</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45058</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28576,7 +28576,7 @@
         <v>45184</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28633,7 +28633,7 @@
         <v>45013</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28690,7 +28690,7 @@
         <v>45177</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         <v>44607.66138888889</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28804,7 +28804,7 @@
         <v>45722</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28861,7 +28861,7 @@
         <v>45722.30927083334</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28918,7 +28918,7 @@
         <v>45432.60322916666</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28975,7 +28975,7 @@
         <v>45096.64295138889</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29032,7 +29032,7 @@
         <v>45706</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29094,7 +29094,7 @@
         <v>45706</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29156,7 +29156,7 @@
         <v>45086.63835648148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29213,7 +29213,7 @@
         <v>45404</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29270,7 +29270,7 @@
         <v>45754</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29327,7 +29327,7 @@
         <v>45637.87370370371</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>45762</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29441,7 +29441,7 @@
         <v>45131</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29498,7 +29498,7 @@
         <v>45762</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29555,7 +29555,7 @@
         <v>45727.27201388889</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29612,7 +29612,7 @@
         <v>45722.33546296296</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29669,7 +29669,7 @@
         <v>44966.23880787037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29726,7 +29726,7 @@
         <v>44375.97329861111</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29783,7 +29783,7 @@
         <v>45554</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29840,7 +29840,7 @@
         <v>45665.83747685186</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29897,7 +29897,7 @@
         <v>45198</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29954,7 +29954,7 @@
         <v>45775.7565625</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30011,7 +30011,7 @@
         <v>45784.29537037037</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>45785.30276620371</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>45791.68216435185</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>45791.6762037037</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30239,7 +30239,7 @@
         <v>45791.67892361111</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30296,7 +30296,7 @@
         <v>45378.60840277778</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30353,7 +30353,7 @@
         <v>45574.64503472222</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30410,7 +30410,7 @@
         <v>45791.8755787037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>45791.87671296296</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30524,7 +30524,7 @@
         <v>44508.47201388889</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>

--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45547</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>45876.59537037037</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45688</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>45487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>45688</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44383</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44768</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44834</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>45805.56380787037</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>45093</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>46058</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44834</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>45840.52479166666</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>44860</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45141</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>45722.31175925926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>44469.75813657408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>45722.43866898148</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45734.65587962963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>45744.34618055556</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>44243</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44308</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44722</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44635.31061342593</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44828.29289351852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44762</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44307</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44302</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>44615.35090277778</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>44358.40847222223</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44379.68478009259</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>44340.71798611111</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44473</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44293</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44326.59270833333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>44421</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>44302</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>44509</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44383</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>44575.40140046296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44345</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>44377</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44862</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>44365</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44266.62465277778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>44504</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>44581</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44868</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44834</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44287</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44414</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44763.54887731482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44298.50453703704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44424.25194444445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44424.26225694444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44280</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44466.56734953704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44344</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44691</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44641.87587962963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44797.49979166667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44351.30484953704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44657</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44588.65645833333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44876</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>44876</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44638</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>44466</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>44699</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44371.58202546297</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44389</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44834.29305555556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44582.52271990741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44886.58752314815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44376</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44398</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44874</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44684.44733796296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44588</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44346.77275462963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44354.32018518518</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44596</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44684.44885416667</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44266.6136574074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44264.36931712963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>44811</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>44980</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>45251</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>45271</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>45775.41575231482</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>44902.69207175926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>44970.38643518519</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>45054</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>45097.72543981481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>45097</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>45272</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>45642.38094907408</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>45581.33299768518</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45259</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44774</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>45487.30003472222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>45687.32652777778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>45341</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>45313</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>45737.36127314815</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>45300</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>45609.28594907407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>45749</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>45104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>44740</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>45741.66375</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>45720.83274305556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>45583.51619212963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44918</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>45743.41180555556</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>45672.48665509259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44552.76177083333</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>45724</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>45352.31376157407</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>45455.64726851852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>45336.58550925926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>45680.54049768519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>44896</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>44875.85422453703</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>45574.64112268519</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>45336.60148148148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>45749.45077546296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>45434.36398148148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>44649.52972222222</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>45561</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>45487.29454861111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>45884.54711805555</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>45804</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>45804</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>45805.37641203704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>44894.67380787037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>45769.64644675926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>45804.40961805556</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>45845</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>44649</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>44935.30733796296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>45888.4928125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>45476.60086805555</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>45352.26722222222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>44981</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>45811.74379629629</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>44295.49506944444</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>45182</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>45813.44809027778</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>45580.61172453704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44365</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>45320</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>45469.55396990741</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>45469</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44841</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>45851</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>45539</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>45897.65458333334</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>45607</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>45741.66020833333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>45323</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>45310</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>45600.73796296296</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>45884.43606481481</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10707,7 +10707,7 @@
         <v>44543.62753472223</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>45401</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10821,7 +10821,7 @@
         <v>45905.51859953703</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>45905.39145833333</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>45905.60706018518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>45910</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>45904.57483796297</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         <v>45713</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11163,7 +11163,7 @@
         <v>45477.81185185185</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11220,7 +11220,7 @@
         <v>45825.44701388889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         <v>45600.73547453704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11334,7 +11334,7 @@
         <v>45909.42924768518</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11391,7 +11391,7 @@
         <v>45908.63833333334</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>45908</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>45824.45068287037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>45824.47262731481</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>45908.40140046296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>45909</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>45825.45068287037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>45911.50188657407</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>45824.56662037037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
         <v>45411.34289351852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>44361.57765046296</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>45912.52008101852</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45058</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>45915.63590277778</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>45915</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44574.57737268518</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>45740.58649305555</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>45007</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44974</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>45736.6059837963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44980</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44649</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>45918.51079861111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>45208</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>45925.5783912037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44886.5540625</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>45929.41274305555</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>45929.45868055556</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>45926.46386574074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>45835.72510416667</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>45665.32594907407</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>45315</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>45929</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>45932.63645833333</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>45932.6437962963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>45932.64760416667</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>45932.3327662037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44711</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>45932.65140046296</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>44376</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>44376</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>45839.85123842592</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>45839.84752314815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>45582.74878472222</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>45490.55327546296</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>45510</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>45085.26358796296</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>45159</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>45938</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>45940.4803125</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>45771</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>45275</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>45085.59748842593</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>45945.35055555555</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>45742.29474537037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>45945.39800925926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>45945.34140046296</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45946.58216435185</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>45574.31206018518</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>45849.59416666667</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45736.33456018518</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45852.42135416667</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>45364.69334490741</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>45364.69854166666</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15054,7 +15054,7 @@
         <v>45852.58422453704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>45852.61472222222</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>45852.6178125</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>45854.58971064815</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>45744.33158564815</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>45952.65193287037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
         <v>45623</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>44622.41708333333</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45866.37137731481</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>44363.3569212963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45792.4404050926</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>45869.50164351852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45200</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44829.7769675926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45954.6484837963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>45835.39423611111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>44481</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>44818</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>45561.84291666667</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>45590</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>44545.52674768519</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>44827.4875462963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>44767</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>44767.79451388889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>44831</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
         <v>45392.545625</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45530</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>44837</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44370</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44982.54386574074</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>45365.89541666667</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16831,7 +16831,7 @@
         <v>45590</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
         <v>45271</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16945,7 +16945,7 @@
         <v>44949</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         <v>45271</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17059,7 +17059,7 @@
         <v>45361</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>45436</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>45313.53454861111</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>45713.74472222223</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>45597</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>45622</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>45873.71965277778</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>45635</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>44347.33357638889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>44831</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>45875</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>45819.645625</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>45222.40752314815</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>45695.49813657408</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>45876.57193287037</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>45589.55373842592</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>45960.5499537037</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>45706.56258101852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>45960.36910879629</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>45877.32945601852</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>44867</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>45960.38479166666</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>45881.48006944444</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>45075</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>45742.27975694444</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18494,7 +18494,7 @@
         <v>45055</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18551,7 +18551,7 @@
         <v>45343</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>45246.61464120371</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>45971.29921296296</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>45771.57631944444</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>45436</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
         <v>45328</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44749.48328703704</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>45973.38171296296</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>45972.6513425926</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>45974.70818287037</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>45279</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>45216</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44615.32111111111</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44279</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>45587</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>45758.47384259259</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>45090</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>45750.63847222222</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45979.62216435185</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45978.59868055556</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>45978.59575231482</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>45722.30659722222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44511</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44447.51398148148</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44341.46094907408</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44235</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45401</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>45980.31319444445</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>45400.55888888889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>45224.58638888889</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>44896.81578703703</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>45300</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>45513</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44935.30976851852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44659.48269675926</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>46024.40092592593</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>45261</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>44620</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>45985.5621875</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         <v>45985.5978587963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>44595.68164351852</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20903,7 +20903,7 @@
         <v>44386</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45986.61699074074</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>44967</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44904.61438657407</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>45988</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21193,7 +21193,7 @@
         <v>44641.86440972222</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44470</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>45246</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>45246.61611111111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>45246.63079861111</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>45359.2549074074</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44236</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>45593</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>45618.83905092593</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44811</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>45372</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>45734.62524305555</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21877,7 +21877,7 @@
         <v>45717.75037037037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21934,7 +21934,7 @@
         <v>45580.6241087963</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21991,7 +21991,7 @@
         <v>45302</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22048,7 +22048,7 @@
         <v>45705.46913194445</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22105,7 +22105,7 @@
         <v>45994.51789351852</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22162,7 +22162,7 @@
         <v>45994.52350694445</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>45994.52712962963</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>44797</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
         <v>45762</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22390,7 +22390,7 @@
         <v>44657</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22447,7 +22447,7 @@
         <v>44910.39135416667</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22504,7 +22504,7 @@
         <v>44644.39805555555</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22561,7 +22561,7 @@
         <v>44649</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22618,7 +22618,7 @@
         <v>46041</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22675,7 +22675,7 @@
         <v>45740</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22732,7 +22732,7 @@
         <v>46003.36679398148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22789,7 +22789,7 @@
         <v>45638.42776620371</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22846,7 +22846,7 @@
         <v>44628.26447916667</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>46003.37913194444</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>45722.31386574074</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>44981.65555555555</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>45366.6443287037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>44368</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
         <v>46007</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23245,7 +23245,7 @@
         <v>46007.29109953704</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>44652.35287037037</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>46047.41975694444</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>44657.74282407408</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>44270.4015162037</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>46007</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23587,7 +23587,7 @@
         <v>46047.3946412037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         <v>46007.67482638889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23701,7 +23701,7 @@
         <v>45075</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23758,7 +23758,7 @@
         <v>45181.63614583333</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>45678.55563657408</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>45359.25248842593</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44470</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>46008.28998842592</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>45574.51304398148</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>45197</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>46055.57247685185</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24219,7 +24219,7 @@
         <v>45404.75238425926</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24276,7 +24276,7 @@
         <v>45701.31181712963</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24333,7 +24333,7 @@
         <v>44533</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24390,7 +24390,7 @@
         <v>44659.65420138889</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24447,7 +24447,7 @@
         <v>46010.57032407408</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24504,7 +24504,7 @@
         <v>45281</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>45210.56701388889</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>46014.37304398148</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>46014.38310185185</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>46014.38857638889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>46014.39244212963</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44851</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>46014.38018518518</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>46008.31253472222</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25017,7 +25017,7 @@
         <v>45349</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25074,7 +25074,7 @@
         <v>45775.61783564815</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25131,7 +25131,7 @@
         <v>45582.75208333333</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>45411.62619212963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>44834</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>45238.56739583334</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>45600</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>45509</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>45369</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44734.49697916667</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>45302.34966435185</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44812</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>45224</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>45155</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44376</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25882,7 +25882,7 @@
         <v>45140</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         <v>45140</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25996,7 +25996,7 @@
         <v>44441</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26053,7 +26053,7 @@
         <v>45058</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
         <v>45434.42556712963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>45196</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44349</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>45197</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>45706</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>45762.69204861111</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45397.65515046296</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26514,7 +26514,7 @@
         <v>45607.53498842593</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26571,7 +26571,7 @@
         <v>45772.3915162037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26628,7 +26628,7 @@
         <v>45700.64099537037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26685,7 +26685,7 @@
         <v>45722.28130787037</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26742,7 +26742,7 @@
         <v>44770.71671296296</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26799,7 +26799,7 @@
         <v>44985</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26856,7 +26856,7 @@
         <v>45422</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26913,7 +26913,7 @@
         <v>44890.61185185185</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>45090.54905092593</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45246.63157407408</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27084,7 +27084,7 @@
         <v>45140</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>45014</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>45567.27173611111</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>45344</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27312,7 +27312,7 @@
         <v>44457</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27369,7 +27369,7 @@
         <v>45716.44537037037</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         <v>45714.58465277778</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27483,7 +27483,7 @@
         <v>45770.57915509259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27540,7 +27540,7 @@
         <v>45708.40592592592</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>45579.46918981482</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>45744.32753472222</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>45457.33523148148</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27773,7 +27773,7 @@
         <v>45744.64173611111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27830,7 +27830,7 @@
         <v>45320</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27887,7 +27887,7 @@
         <v>45743.74923611111</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>45329</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28001,7 +28001,7 @@
         <v>44855</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28058,7 +28058,7 @@
         <v>44981.64929398148</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28115,7 +28115,7 @@
         <v>44722</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45008</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28229,7 +28229,7 @@
         <v>45272</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28286,7 +28286,7 @@
         <v>45706</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>45743.52512731482</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28405,7 +28405,7 @@
         <v>45743.68034722222</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28462,7 +28462,7 @@
         <v>45531</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45058</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28576,7 +28576,7 @@
         <v>45184</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28633,7 +28633,7 @@
         <v>45013</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28690,7 +28690,7 @@
         <v>45177</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         <v>44607.66138888889</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28804,7 +28804,7 @@
         <v>45722</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28861,7 +28861,7 @@
         <v>45722.30927083334</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28918,7 +28918,7 @@
         <v>45432.60322916666</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28975,7 +28975,7 @@
         <v>45096.64295138889</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29032,7 +29032,7 @@
         <v>45706</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29094,7 +29094,7 @@
         <v>45706</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29156,7 +29156,7 @@
         <v>45086.63835648148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29213,7 +29213,7 @@
         <v>45404</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29270,7 +29270,7 @@
         <v>45754</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29327,7 +29327,7 @@
         <v>45637.87370370371</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>45762</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29441,7 +29441,7 @@
         <v>45131</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29498,7 +29498,7 @@
         <v>45762</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29555,7 +29555,7 @@
         <v>45727.27201388889</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29612,7 +29612,7 @@
         <v>45722.33546296296</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29669,7 +29669,7 @@
         <v>44966.23880787037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29726,7 +29726,7 @@
         <v>44375.97329861111</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29783,7 +29783,7 @@
         <v>45554</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29840,7 +29840,7 @@
         <v>45665.83747685186</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29897,7 +29897,7 @@
         <v>45198</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29954,7 +29954,7 @@
         <v>45775.7565625</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30011,7 +30011,7 @@
         <v>45784.29537037037</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>45785.30276620371</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>45791.68216435185</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>45791.6762037037</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30239,7 +30239,7 @@
         <v>45791.67892361111</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30296,7 +30296,7 @@
         <v>45378.60840277778</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30353,7 +30353,7 @@
         <v>45574.64503472222</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30410,7 +30410,7 @@
         <v>45791.8755787037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>45791.87671296296</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30524,7 +30524,7 @@
         <v>44508.47201388889</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>

--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45547</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>45876.59537037037</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45688</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44383</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>45487</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45688</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44768</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44834</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>45093</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>46058</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45805.56380787037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44834</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>45840.52479166666</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>44860</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45141</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>45722.31175925926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>44469.75813657408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>45722.43866898148</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45734.65587962963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>45744.34618055556</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>44635.31061342593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44722</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44828.29289351852</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44762</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44308</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44307</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44371</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44302</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44615.35090277778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>44358.40847222223</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>44379.68478009259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44340.71798611111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>44473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44293</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44326.59270833333</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44421</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>44302</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>44509</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>44383</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44575.40140046296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>44345</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44377</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>44862</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44365</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>44504</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44266.62465277778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>44581</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>44868</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44834</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44287</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44414</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44763.54887731482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44298.50453703704</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44424.25194444445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44424.26225694444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44280</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44466.56734953704</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44344</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44691</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44641.87587962963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44797.49979166667</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44351.30484953704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44657</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44588.65645833333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44876</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44876</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>44638</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44466</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>44699</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>44371.58202546297</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44389</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44834.29305555556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44582.52271990741</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44886.58752314815</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44376</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44398</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44874</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44684.44733796296</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44346.77275462963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44354.32018518518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44596</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44684.44885416667</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44266.6136574074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44264.36931712963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44811</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>44980</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>45775.41575231482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>44902.69207175926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>44970.38643518519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>45251</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>45271</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>45097.72543981481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>45054</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>45097</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>45642.38094907408</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>45272</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>45581.33299768518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>45259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45487.30003472222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44774</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>45687.32652777778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>45341</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>45313</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>45737.36127314815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>45300</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>45609.28594907407</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>45104</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>45741.66375</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>45720.83274305556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>45583.51619212963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44740</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>45724</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44918</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>45743.41180555556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>45672.48665509259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44552.76177083333</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>45352.31376157407</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>45336.58550925926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44896</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>45455.64726851852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>45680.54049768519</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>45574.64112268519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>44875.85422453703</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>45749.45077546296</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>44649.52972222222</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>45749</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>45561</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>45487.29454861111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>44894.67380787037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>45769.64644675926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>44649</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>44935.30733796296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>44295.49506944444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>45182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>45469.55396990741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>45469</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44981</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>45607</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>45741.66020833333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44841</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>45539</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>45884.54711805555</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>45323</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>45845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>45825.44701388889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>45310</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>45600.73796296296</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>45824.45068287037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45824.47262731481</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>45825.45068287037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>45888.4928125</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>45824.56662037037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>44543.62753472223</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         <v>45401</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10127,7 +10127,7 @@
         <v>45580.61172453704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>45477.81185185185</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
         <v>45740.58649305555</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10298,7 +10298,7 @@
         <v>45600.73547453704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>45851</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>45411.34289351852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>45897.65458333334</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>44361.57765046296</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>45058</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44574.57737268518</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>45007</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>44974</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>45736.6059837963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>45835.72510416667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>45884.43606481481</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44980</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11044,7 +11044,7 @@
         <v>44649</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11101,7 +11101,7 @@
         <v>45905.51859953703</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11158,7 +11158,7 @@
         <v>45905.39145833333</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11215,7 +11215,7 @@
         <v>45905.60706018518</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>45910</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>45904.57483796297</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>45713</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>45909.42924768518</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11500,7 +11500,7 @@
         <v>45908.63833333334</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>45208</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>45839.85123842592</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11671,7 +11671,7 @@
         <v>45908</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>45839.84752314815</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>45908.40140046296</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>45909</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>45911.50188657407</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44886.5540625</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>45771</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>45912.52008101852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>45915.63590277778</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>45915</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>45665.32594907407</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>45315</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12360,7 +12360,7 @@
         <v>45849.59416666667</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12417,7 +12417,7 @@
         <v>45736.33456018518</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>45852.42135416667</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12531,7 +12531,7 @@
         <v>45852.58422453704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12588,7 +12588,7 @@
         <v>45852.61472222222</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         <v>45852.6178125</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>45854.58971064815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44711</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>45918.51079861111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>44376</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>44376</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45582.74878472222</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45490.55327546296</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45866.37137731481</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45925.5783912037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>45510</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>45792.4404050926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>45085.26358796296</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>45929.41274305555</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>45159</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>45929.45868055556</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45869.50164351852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>45200</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44829.7769675926</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>45835.39423611111</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44481</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>44818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>45561.84291666667</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>45590</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44545.52674768519</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>45926.46386574074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44767</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44767.79451388889</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44831</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>45530</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44370</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>44982.54386574074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>45365.89541666667</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>45590</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>45271</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>44949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>45271</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>45361</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>45313.53454861111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>45713.74472222223</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>45597</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>45622</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>45873.71965277778</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44347.33357638889</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44831</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>45875</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>45275</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>45819.645625</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>45929</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45932.63645833333</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45932.6437962963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15557,7 +15557,7 @@
         <v>45932.64760416667</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15614,7 +15614,7 @@
         <v>45085.59748842593</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15671,7 +15671,7 @@
         <v>45932.3327662037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15728,7 +15728,7 @@
         <v>45876.57193287037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>45742.29474537037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>45574.31206018518</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>45877.32945601852</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>45932.65140046296</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>45881.48006944444</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>45364.69334490741</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>45364.69854166666</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>45744.33158564815</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>45771.57631944444</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>45623</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44622.41708333333</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>45938</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44363.3569212963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>45940.4803125</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44827.4875462963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>45392.545625</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44837</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>45436</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16816,7 +16816,7 @@
         <v>45945.35055555555</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>45750.63847222222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>45945.39800925926</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>45635</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>45945.34140046296</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>45946.58216435185</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>45222.40752314815</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17215,7 +17215,7 @@
         <v>45695.49813657408</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>45589.55373842592</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>45706.56258101852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>44867</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>45952.65193287037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>45075</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>45742.27975694444</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>45055</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>45343</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>45954.6484837963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>45246.61464120371</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>45436</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>45328</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>44749.48328703704</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>45960.5499537037</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>45960.36910879629</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>45279</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>45216</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>44615.32111111111</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18318,7 +18318,7 @@
         <v>44279</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>45587</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>45758.47384259259</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18494,7 +18494,7 @@
         <v>45960.38479166666</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18551,7 +18551,7 @@
         <v>45090</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>45722.30659722222</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>44511</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>44447.51398148148</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>44341.46094907408</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45401</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>45400.55888888889</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>45224.58638888889</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44896.81578703703</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>45300</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>45971.29921296296</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>45513</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44935.30976851852</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44659.48269675926</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>45261</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44620</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>44595.68164351852</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45973.38171296296</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>45972.6513425926</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>45974.70818287037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44386</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>44967</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>45979.62216435185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>45978.59868055556</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>45978.59575231482</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44904.61438657407</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>45980.31319444445</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>44641.86440972222</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>44470</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>45246</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>45246.61611111111</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>45246.63079861111</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>45359.2549074074</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>45985.5621875</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>45985.5978587963</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>45593</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>45618.83905092593</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>44811</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>45986.61699074074</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>45734.62524305555</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>45717.75037037037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>45580.6241087963</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>45988</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>45302</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>45705.46913194445</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45372</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44797</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>45762</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44657</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21354,7 +21354,7 @@
         <v>44910.39135416667</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21411,7 +21411,7 @@
         <v>45994.51789351852</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
         <v>45994.52350694445</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>45994.52712962963</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>44644.39805555555</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>44649</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>45740</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>46041</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>45638.42776620371</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>44628.26447916667</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21924,7 +21924,7 @@
         <v>46003.36679398148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>45722.31386574074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>44981.65555555555</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>45366.6443287037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22152,7 +22152,7 @@
         <v>44368</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22209,7 +22209,7 @@
         <v>44652.35287037037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22266,7 +22266,7 @@
         <v>46003.37913194444</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>44657.74282407408</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>44270.4015162037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>45075</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>45181.63614583333</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22551,7 +22551,7 @@
         <v>46007</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22608,7 +22608,7 @@
         <v>46007.29109953704</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22665,7 +22665,7 @@
         <v>45678.55563657408</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>46047.41975694444</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45359.25248842593</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44470</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>46007</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>46047.3946412037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>46007.67482638889</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>45574.51304398148</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>45197</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>46008.28998842592</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>45404.75238425926</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>45701.31181712963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44533</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44659.65420138889</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>46055.57247685185</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>45281</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>45210.56701388889</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44851</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>46010.57032407408</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>46014.37304398148</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>46014.38310185185</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>46014.38857638889</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>46014.39244212963</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>46014.38018518518</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>46008.31253472222</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45349</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45775.61783564815</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45582.75208333333</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>45411.62619212963</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44834</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45238.56739583334</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>45600</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>45509</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45369</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>46055</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44734.49697916667</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>45302.34966435185</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44812</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>45224</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>46064.81657407407</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45155</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44376</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25074,7 +25074,7 @@
         <v>45140</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25131,7 +25131,7 @@
         <v>45140</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44441</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>46024.40092592593</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>45058</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>45434.42556712963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>45196</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44349</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>45197</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>45706</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>45762.69204861111</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>45397.65515046296</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>45607.53498842593</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>45772.3915162037</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>45700.64099537037</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>45722.28130787037</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44770.71671296296</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44985</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>45422</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44890.61185185185</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>45090.54905092593</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>45246.63157407408</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26333,7 +26333,7 @@
         <v>45140</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>45014</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26447,7 +26447,7 @@
         <v>45567.27173611111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         <v>45344</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>44457</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>45716.44537037037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>45714.58465277778</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>45770.57915509259</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26789,7 +26789,7 @@
         <v>45708.40592592592</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>45579.46918981482</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45744.32753472222</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26960,7 +26960,7 @@
         <v>45457.33523148148</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27022,7 +27022,7 @@
         <v>45744.64173611111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27079,7 +27079,7 @@
         <v>45320</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>45743.74923611111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>45329</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>44855</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>44981.64929398148</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>44722</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45008</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>45272</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27535,7 +27535,7 @@
         <v>45706</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>45743.52512731482</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>45743.68034722222</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>45531</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27768,7 +27768,7 @@
         <v>45058</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27825,7 +27825,7 @@
         <v>45184</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45013</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45177</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>44607.66138888889</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>45722</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45722.30927083334</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28167,7 +28167,7 @@
         <v>45432.60322916666</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         <v>45096.64295138889</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28281,7 +28281,7 @@
         <v>45706</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28343,7 +28343,7 @@
         <v>45706</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28405,7 +28405,7 @@
         <v>45086.63835648148</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28462,7 +28462,7 @@
         <v>45404</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45754</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28576,7 +28576,7 @@
         <v>45637.87370370371</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28633,7 +28633,7 @@
         <v>45762</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28690,7 +28690,7 @@
         <v>45131</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         <v>45762</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28804,7 +28804,7 @@
         <v>45727.27201388889</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28861,7 +28861,7 @@
         <v>45722.33546296296</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28918,7 +28918,7 @@
         <v>44966.23880787037</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28975,7 +28975,7 @@
         <v>44375.97329861111</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29032,7 +29032,7 @@
         <v>45554</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29089,7 +29089,7 @@
         <v>45665.83747685186</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29146,7 +29146,7 @@
         <v>45198</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29203,7 +29203,7 @@
         <v>45775.7565625</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>45784.29537037037</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29317,7 +29317,7 @@
         <v>45785.30276620371</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29374,7 +29374,7 @@
         <v>45791.68216435185</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29431,7 +29431,7 @@
         <v>45791.6762037037</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29488,7 +29488,7 @@
         <v>45791.67892361111</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29545,7 +29545,7 @@
         <v>45378.60840277778</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29602,7 +29602,7 @@
         <v>45574.64503472222</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29659,7 +29659,7 @@
         <v>45791.8755787037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29716,7 +29716,7 @@
         <v>45791.87671296296</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29773,7 +29773,7 @@
         <v>44508.47201388889</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29830,7 +29830,7 @@
         <v>45336.60148148148</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>45434.36398148148</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29944,7 +29944,7 @@
         <v>45804</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30001,7 +30001,7 @@
         <v>45804</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         <v>45805.37641203704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30120,7 +30120,7 @@
         <v>45804.40961805556</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30177,7 +30177,7 @@
         <v>45476.60086805555</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30234,7 +30234,7 @@
         <v>45352.26722222222</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30291,7 +30291,7 @@
         <v>45811.74379629629</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30348,7 +30348,7 @@
         <v>45813.44809027778</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30405,7 +30405,7 @@
         <v>44365</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30462,7 +30462,7 @@
         <v>45320</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>

--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45547</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>45876.59537037037</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45688</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44383</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>45487</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45688</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44768</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44834</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>45093</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>46058</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45805.56380787037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>44834</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>45840.52479166666</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>44860</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45141</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>45722.31175925926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>44469.75813657408</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>45722.43866898148</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45734.65587962963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>45744.34618055556</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>44635.31061342593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44722</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44828.29289351852</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44762</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44308</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44307</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44371</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44302</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44615.35090277778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>44358.40847222223</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>44379.68478009259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>44340.71798611111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>44473</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44293</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44326.59270833333</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>44421</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>44302</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>44509</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>44383</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44575.40140046296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>44345</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>44377</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>44862</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44365</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>44504</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44266.62465277778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>44581</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>44868</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44834</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44287</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44414</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44763.54887731482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44298.50453703704</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44424.25194444445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44424.26225694444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44280</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44466.56734953704</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44344</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44691</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44641.87587962963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44797.49979166667</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44351.30484953704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44657</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44588.65645833333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44876</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44876</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>44638</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44466</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>44699</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>44371.58202546297</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44389</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44834.29305555556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44582.52271990741</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44886.58752314815</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>44376</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44398</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44874</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>44684.44733796296</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>44346.77275462963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>44354.32018518518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44596</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>44684.44885416667</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>44266.6136574074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44264.36931712963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44811</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>44980</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>45775.41575231482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>44902.69207175926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>44970.38643518519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>45251</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>45271</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>45097.72543981481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>45054</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>45097</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>45642.38094907408</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>45272</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>45581.33299768518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>45259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>45487.30003472222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>44774</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>45687.32652777778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>45341</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>45313</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>45737.36127314815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>45300</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>45609.28594907407</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>45104</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>45741.66375</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>45720.83274305556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>45583.51619212963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>44740</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>45724</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
         <v>44918</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>45743.41180555556</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>45672.48665509259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44552.76177083333</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>45352.31376157407</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>45336.58550925926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44896</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>45455.64726851852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>45680.54049768519</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>45574.64112268519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>44875.85422453703</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>45749.45077546296</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>44649.52972222222</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>45749</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>45561</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
         <v>45487.29454861111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>44894.67380787037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>45769.64644675926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>44649</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>44935.30733796296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>44295.49506944444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>45182</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>45469.55396990741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>45469</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44981</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>45607</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>45741.66020833333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44841</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>45539</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>45884.54711805555</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>45323</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         <v>45845</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>45825.44701388889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9614,7 +9614,7 @@
         <v>45310</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>45600.73796296296</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>45824.45068287037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45824.47262731481</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>45825.45068287037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>45888.4928125</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>45824.56662037037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>44543.62753472223</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10070,7 +10070,7 @@
         <v>45401</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10127,7 +10127,7 @@
         <v>45580.61172453704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>45477.81185185185</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
         <v>45740.58649305555</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10298,7 +10298,7 @@
         <v>45600.73547453704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>45851</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>45411.34289351852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>45897.65458333334</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10526,7 +10526,7 @@
         <v>44361.57765046296</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>45058</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>44574.57737268518</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>45007</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10754,7 +10754,7 @@
         <v>44974</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>45736.6059837963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>45835.72510416667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10925,7 +10925,7 @@
         <v>45884.43606481481</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>44980</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11044,7 +11044,7 @@
         <v>44649</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11101,7 +11101,7 @@
         <v>45905.51859953703</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11158,7 +11158,7 @@
         <v>45905.39145833333</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11215,7 +11215,7 @@
         <v>45905.60706018518</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>45910</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>45904.57483796297</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>45713</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>45909.42924768518</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11500,7 +11500,7 @@
         <v>45908.63833333334</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>45208</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>45839.85123842592</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11671,7 +11671,7 @@
         <v>45908</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>45839.84752314815</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>45908.40140046296</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>45909</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>45911.50188657407</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>44886.5540625</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>45771</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>45912.52008101852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>45915.63590277778</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>45915</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>45665.32594907407</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>45315</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12360,7 +12360,7 @@
         <v>45849.59416666667</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12417,7 +12417,7 @@
         <v>45736.33456018518</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>45852.42135416667</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12531,7 +12531,7 @@
         <v>45852.58422453704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12588,7 +12588,7 @@
         <v>45852.61472222222</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         <v>45852.6178125</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>45854.58971064815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44711</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>45918.51079861111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>44376</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>44376</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45582.74878472222</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45490.55327546296</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45866.37137731481</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45925.5783912037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>45510</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>45792.4404050926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>45085.26358796296</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>45929.41274305555</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>45159</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>45929.45868055556</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45869.50164351852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>45200</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44829.7769675926</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>45835.39423611111</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44481</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>44818</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>45561.84291666667</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>45590</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44545.52674768519</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>45926.46386574074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44767</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44767.79451388889</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44831</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>45530</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>44370</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>44982.54386574074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>45365.89541666667</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>45590</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>45271</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>44949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>45271</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>45361</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>45313.53454861111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>45713.74472222223</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>45597</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>45622</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>45873.71965277778</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44347.33357638889</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44831</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>45875</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>45275</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>45819.645625</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>45929</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45932.63645833333</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45932.6437962963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15557,7 +15557,7 @@
         <v>45932.64760416667</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15614,7 +15614,7 @@
         <v>45085.59748842593</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15671,7 +15671,7 @@
         <v>45932.3327662037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15728,7 +15728,7 @@
         <v>45876.57193287037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>45742.29474537037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>45574.31206018518</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>45877.32945601852</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>45932.65140046296</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>45881.48006944444</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>45364.69334490741</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>45364.69854166666</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>45744.33158564815</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>45771.57631944444</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>45623</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44622.41708333333</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>45938</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44363.3569212963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>45940.4803125</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44827.4875462963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>45392.545625</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44837</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>45436</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16816,7 +16816,7 @@
         <v>45945.35055555555</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>45750.63847222222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>45945.39800925926</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>45635</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>45945.34140046296</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>45946.58216435185</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>45222.40752314815</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17215,7 +17215,7 @@
         <v>45695.49813657408</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17277,7 +17277,7 @@
         <v>45589.55373842592</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>45706.56258101852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>44867</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>45952.65193287037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>45075</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>45742.27975694444</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>45055</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>45343</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>45954.6484837963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>45246.61464120371</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>45436</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>45328</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         <v>44749.48328703704</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>45960.5499537037</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18090,7 +18090,7 @@
         <v>45960.36910879629</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>45279</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18204,7 +18204,7 @@
         <v>45216</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>44615.32111111111</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18318,7 +18318,7 @@
         <v>44279</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>45587</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>45758.47384259259</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18494,7 +18494,7 @@
         <v>45960.38479166666</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18551,7 +18551,7 @@
         <v>45090</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>45722.30659722222</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>44511</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>44447.51398148148</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>44341.46094907408</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45401</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>45400.55888888889</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>45224.58638888889</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>44896.81578703703</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19069,7 +19069,7 @@
         <v>45300</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         <v>45971.29921296296</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19183,7 +19183,7 @@
         <v>45513</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19240,7 +19240,7 @@
         <v>44935.30976851852</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>44659.48269675926</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>45261</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44620</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>44595.68164351852</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>45973.38171296296</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>45972.6513425926</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>45974.70818287037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44386</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>44967</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         <v>45979.62216435185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>45978.59868055556</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>45978.59575231482</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44904.61438657407</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>45980.31319444445</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20095,7 +20095,7 @@
         <v>44641.86440972222</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         <v>44470</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>45246</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20266,7 +20266,7 @@
         <v>45246.61611111111</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>45246.63079861111</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>45359.2549074074</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>45985.5621875</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>45985.5978587963</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20551,7 +20551,7 @@
         <v>45593</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>45618.83905092593</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>44811</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>45986.61699074074</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>45734.62524305555</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>45717.75037037037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>45580.6241087963</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
         <v>45988</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>45302</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>45705.46913194445</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21126,7 +21126,7 @@
         <v>45372</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21183,7 +21183,7 @@
         <v>44797</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21240,7 +21240,7 @@
         <v>45762</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>44657</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21354,7 +21354,7 @@
         <v>44910.39135416667</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21411,7 +21411,7 @@
         <v>45994.51789351852</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
         <v>45994.52350694445</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>45994.52712962963</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>44644.39805555555</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21639,7 +21639,7 @@
         <v>44649</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21696,7 +21696,7 @@
         <v>45740</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>46041</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21810,7 +21810,7 @@
         <v>45638.42776620371</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21867,7 +21867,7 @@
         <v>44628.26447916667</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21924,7 +21924,7 @@
         <v>46003.36679398148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21981,7 +21981,7 @@
         <v>45722.31386574074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>44981.65555555555</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>45366.6443287037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22152,7 +22152,7 @@
         <v>44368</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22209,7 +22209,7 @@
         <v>44652.35287037037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22266,7 +22266,7 @@
         <v>46003.37913194444</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>44657.74282407408</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
         <v>44270.4015162037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         <v>45075</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22494,7 +22494,7 @@
         <v>45181.63614583333</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22551,7 +22551,7 @@
         <v>46007</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22608,7 +22608,7 @@
         <v>46007.29109953704</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22665,7 +22665,7 @@
         <v>45678.55563657408</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22727,7 +22727,7 @@
         <v>46047.41975694444</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45359.25248842593</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>44470</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>46007</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>46047.3946412037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>46007.67482638889</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>45574.51304398148</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23126,7 +23126,7 @@
         <v>45197</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23183,7 +23183,7 @@
         <v>46008.28998842592</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>45404.75238425926</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>45701.31181712963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44533</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44659.65420138889</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>46055.57247685185</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>45281</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>45210.56701388889</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44851</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>46010.57032407408</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>46014.37304398148</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>46014.38310185185</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>46014.38857638889</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>46014.39244212963</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>46014.38018518518</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>46008.31253472222</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45349</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45775.61783564815</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45582.75208333333</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>45411.62619212963</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44834</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>45238.56739583334</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>45600</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>45509</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45369</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>46055</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>44734.49697916667</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>45302.34966435185</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44812</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>45224</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>46064.81657407407</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45155</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44376</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25074,7 +25074,7 @@
         <v>45140</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25131,7 +25131,7 @@
         <v>45140</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>44441</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>46024.40092592593</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>45058</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>45434.42556712963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>45196</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44349</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>45197</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>45706</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>45762.69204861111</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>45397.65515046296</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>45607.53498842593</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>45772.3915162037</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>45700.64099537037</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>45722.28130787037</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44770.71671296296</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44985</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>45422</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44890.61185185185</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>45090.54905092593</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>45246.63157407408</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26333,7 +26333,7 @@
         <v>45140</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>45014</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26447,7 +26447,7 @@
         <v>45567.27173611111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         <v>45344</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>44457</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>45716.44537037037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>45714.58465277778</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>45770.57915509259</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26789,7 +26789,7 @@
         <v>45708.40592592592</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>45579.46918981482</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45744.32753472222</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26960,7 +26960,7 @@
         <v>45457.33523148148</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27022,7 +27022,7 @@
         <v>45744.64173611111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27079,7 +27079,7 @@
         <v>45320</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>45743.74923611111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>45329</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>44855</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>44981.64929398148</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>44722</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45008</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>45272</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27535,7 +27535,7 @@
         <v>45706</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>45743.52512731482</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>45743.68034722222</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>45531</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27768,7 +27768,7 @@
         <v>45058</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27825,7 +27825,7 @@
         <v>45184</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45013</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>45177</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>44607.66138888889</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>45722</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>45722.30927083334</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28167,7 +28167,7 @@
         <v>45432.60322916666</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         <v>45096.64295138889</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28281,7 +28281,7 @@
         <v>45706</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28343,7 +28343,7 @@
         <v>45706</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28405,7 +28405,7 @@
         <v>45086.63835648148</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28462,7 +28462,7 @@
         <v>45404</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45754</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28576,7 +28576,7 @@
         <v>45637.87370370371</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28633,7 +28633,7 @@
         <v>45762</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28690,7 +28690,7 @@
         <v>45131</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         <v>45762</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28804,7 +28804,7 @@
         <v>45727.27201388889</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28861,7 +28861,7 @@
         <v>45722.33546296296</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28918,7 +28918,7 @@
         <v>44966.23880787037</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28975,7 +28975,7 @@
         <v>44375.97329861111</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29032,7 +29032,7 @@
         <v>45554</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29089,7 +29089,7 @@
         <v>45665.83747685186</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29146,7 +29146,7 @@
         <v>45198</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29203,7 +29203,7 @@
         <v>45775.7565625</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>45784.29537037037</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29317,7 +29317,7 @@
         <v>45785.30276620371</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29374,7 +29374,7 @@
         <v>45791.68216435185</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29431,7 +29431,7 @@
         <v>45791.6762037037</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29488,7 +29488,7 @@
         <v>45791.67892361111</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29545,7 +29545,7 @@
         <v>45378.60840277778</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29602,7 +29602,7 @@
         <v>45574.64503472222</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29659,7 +29659,7 @@
         <v>45791.8755787037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29716,7 +29716,7 @@
         <v>45791.87671296296</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29773,7 +29773,7 @@
         <v>44508.47201388889</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29830,7 +29830,7 @@
         <v>45336.60148148148</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>45434.36398148148</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29944,7 +29944,7 @@
         <v>45804</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30001,7 +30001,7 @@
         <v>45804</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         <v>45805.37641203704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30120,7 +30120,7 @@
         <v>45804.40961805556</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30177,7 +30177,7 @@
         <v>45476.60086805555</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30234,7 +30234,7 @@
         <v>45352.26722222222</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30291,7 +30291,7 @@
         <v>45811.74379629629</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30348,7 +30348,7 @@
         <v>45813.44809027778</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30405,7 +30405,7 @@
         <v>44365</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30462,7 +30462,7 @@
         <v>45320</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>

--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45547</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>45688</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45876.59537037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>45688</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44383</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44768</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>45093</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>45805.56380787037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>46058</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>44834</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>45734.65587962963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44860</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45840.52479166666</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45141</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>45722.43866898148</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>45744.34618055556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         <v>46076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>44469.75813657408</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>44834</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>45722.31175925926</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>44308</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>44722</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>44828.29289351852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>44762</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
         <v>44307</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>44635.31061342593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>44302</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>44371</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         <v>44615.35090277778</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>44358.40847222223</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>44379.68478009259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>44340.71798611111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>44473</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>44293</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>44326.59270833333</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         <v>44421</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>44302</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>44509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>44383</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>44575.40140046296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         <v>44377</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>44345</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>44862</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>44504</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44365</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44266.62465277778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3813,7 +3813,7 @@
         <v>44581</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>44868</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>44834</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>44287</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>44414</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>44763.54887731482</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>44298.50453703704</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>44424.25194444445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>44424.26225694444</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>44280</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>44466.56734953704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>44344</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>44691</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>44641.87587962963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>44797.49979166667</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>44351.30484953704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>44657</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>44588.65645833333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>44876</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>44876</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>44638</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>44466</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>44699</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>44371.58202546297</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>44389</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>44834.29305555556</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>44582.52271990741</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44886.58752314815</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>44376</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44398</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>44874</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>44684.44733796296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44588</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>44346.77275462963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>44354.32018518518</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>44596</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>44684.44885416667</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>44266.6136574074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>44264.36931712963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>44811</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>44774</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>45343</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>45329</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>45411.62619212963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>45300</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         <v>45705.46913194445</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
         <v>45724</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>45436</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>45359.25248842593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45090.54905092593</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44890.61185185185</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44386</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>45411.34289351852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>44361.57765046296</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>45574.64112268519</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44447.51398148148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45323</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45580.6241087963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45097</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45097.72543981481</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44457</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44894.67380787037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45490.55327546296</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44902.69207175926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>44867</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>45469.55396990741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>44574.57737268518</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>45246</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>45246.61611111111</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>45246.63079861111</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>44834</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>45561</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>45804.40961805556</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>45567.27173611111</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>44615.32111111111</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>45805.37641203704</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>45476.60086805555</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>45750.63847222222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>45742.29474537037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>45352.26722222222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>45359.2549074074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>45811.74379629629</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>45845</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>44910.39135416667</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>45888.4928125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>45813.44809027778</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>45432.60322916666</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>45580.61172453704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>45741.66020833333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>45320</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44365</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>45607</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>45392.545625</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44659.65420138889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>45824.56662037037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>45824.45068287037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>45824.47262731481</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>45589.55373842592</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>45851</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>45825.45068287037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>45208</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>44974</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         <v>45825.44701388889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9704,7 +9704,7 @@
         <v>45897.65458333334</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9761,7 +9761,7 @@
         <v>45740.58649305555</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>45884.43606481481</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44980</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>45007</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>45713</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>45904.57483796297</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>45905.60706018518</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>45908.40140046296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>45908.63833333334</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>45905.51859953703</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>45908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>45770.57915509259</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>45905.39145833333</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>45583.51619212963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>45910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>45741.66375</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>45835.72510416667</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44270.4015162037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>45839.84752314815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>44966.23880787037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>45839.85123842592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>45579.46918981482</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>45581.33299768518</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>45909</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>45909.42924768518</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>45911.50188657407</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11253,7 +11253,7 @@
         <v>45771</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>45609.28594907407</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44740</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>45058</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>45912.52008101852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>45706</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>45131</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>45271</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>45852.6178125</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>45849.59416666667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>45096.64295138889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>45852.58422453704</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>45852.42135416667</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>45852.61472222222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>45736.33456018518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>45600</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>45854.58971064815</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>45915.63590277778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>45915</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>45918.51079861111</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>45866.37137731481</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>45637.87370370371</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>44649</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>44649</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>45926.46386574074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>45925.5783912037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>45869.50164351852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>45706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>45706</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>45792.4404050926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44644.39805555555</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44949</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44831</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44481</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>45200</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>45597</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>45361</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>45530</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>45561.84291666667</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>45929</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>45929.41274305555</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>44347.33357638889</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>45271</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>44545.52674768519</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45929.45868055556</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44982.54386574074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44829.7769675926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45271</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>44370</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>45819.645625</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>45365.89541666667</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45701.31181712963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>45313.53454861111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>45590</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>45622</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44767</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>44767.79451388889</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>45590</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>45713.74472222223</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>45932.3327662037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>45835.39423611111</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>45873.71965277778</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>45700.64099537037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>45932.6437962963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>45932.64760416667</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44818</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44831</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>45085.26358796296</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>45198</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44349</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>45875</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45876.57193287037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44375.97329861111</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>45932.65140046296</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>44376</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>45877.32945601852</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>45932.63645833333</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>45743.68034722222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>45881.48006944444</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>45706</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>45743.52512731482</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>45687.32652777778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>45771.57631944444</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44970.38643518519</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45772.3915162037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>45722.30659722222</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>45196</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>45775.61783564815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45938</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45744.32753472222</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45509</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>45054</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>45055</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>45197</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>45075</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>44552.76177083333</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>44657</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>45940.4803125</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>45246.63157407408</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>45884.54711805555</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>45722</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>45722.30927083334</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>45210.56701388889</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44734.49697916667</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>45945.39800925926</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>45706.56258101852</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>45744.64173611111</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>45945.34140046296</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>45946.58216435185</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>45945.35055555555</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>45085.59748842593</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>45058</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>45272</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>45352.31376157407</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>45952.65193287037</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>45455.64726851852</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>45275</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>45369</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44935.30976851852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44918</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>45954.6484837963</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45749</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44470</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>45960.36910879629</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>45336.58550925926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18423,7 +18423,7 @@
         <v>45960.5499537037</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18480,7 +18480,7 @@
         <v>45960.38479166666</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44896</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>45344</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>44985</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44827.4875462963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45477.81185185185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>45104</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>44543.62753472223</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>45971.29921296296</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>45743.41180555556</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>44980</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>44595.68164351852</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45281</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44607.66138888889</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45974.70818287037</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44981</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45972.6513425926</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45593</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45973.38171296296</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45978.59575231482</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45246.61464120371</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45978.59868055556</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>44533</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45980.31319444445</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45979.62216435185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45574.51304398148</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45582.74878472222</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>45422</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>45434.42556712963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>45985.5621875</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20190,7 +20190,7 @@
         <v>45722.28130787037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>45985.5978587963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>45487.29454861111</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>45349</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>44967</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>45986.61699074074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>45086.63835648148</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>45075</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>45008</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>45988</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45554</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45372</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45722.33546296296</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45994.51789351852</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45994.52712962963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45994.52350694445</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45727.27201388889</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>45672.48665509259</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>46041</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44649.52972222222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45366.6443287037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45638.42776620371</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21449,7 +21449,7 @@
         <v>45182</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         <v>45600.73547453704</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
         <v>45600.73796296296</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21620,7 +21620,7 @@
         <v>45762</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21677,7 +21677,7 @@
         <v>46003.36679398148</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21734,7 +21734,7 @@
         <v>46047.41975694444</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>45708.40592592592</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>46003.37913194444</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21905,7 +21905,7 @@
         <v>46047.3946412037</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21962,7 +21962,7 @@
         <v>45140</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>45140</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>46007.67482638889</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>44711</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>45261</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22247,7 +22247,7 @@
         <v>46007</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>46007.29109953704</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>46008.28998842592</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>44649</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>46007</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45404</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45177</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>46010.57032407408</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>44368</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>46008.31253472222</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>46055.57247685185</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>46014.38310185185</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>46014.39244212963</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45320</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45181.63614583333</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>46014.38018518518</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45197</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45695.49813657408</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>46014.37304398148</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>46014.38857638889</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>45401</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>45714.58465277778</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>45159</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>45315</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23620,7 +23620,7 @@
         <v>45279</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23677,7 +23677,7 @@
         <v>46055</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23734,7 +23734,7 @@
         <v>45762</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>45328</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23848,7 +23848,7 @@
         <v>45397.65515046296</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>46064.81657407407</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>45513</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>45717.75037037037</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>45758.47384259259</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44812</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>45313</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44851</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>46024.40092592593</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
         <v>45487.30003472222</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         <v>45272</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>45744.33158564815</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>45401</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>45259</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>45238.56739583334</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>45642.38094907408</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>45623</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>45720.83274305556</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>44376</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44376</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24993,7 +24993,7 @@
         <v>44295.49506944444</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25050,7 +25050,7 @@
         <v>45400.55888888889</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25112,7 +25112,7 @@
         <v>44622.41708333333</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25169,7 +25169,7 @@
         <v>44279</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25226,7 +25226,7 @@
         <v>44620</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25283,7 +25283,7 @@
         <v>44657.74282407408</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25340,7 +25340,7 @@
         <v>44896.81578703703</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25397,7 +25397,7 @@
         <v>45222.40752314815</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25454,7 +25454,7 @@
         <v>44470</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25511,7 +25511,7 @@
         <v>44855</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25568,7 +25568,7 @@
         <v>45302.34966435185</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25625,7 +25625,7 @@
         <v>44770.71671296296</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25682,7 +25682,7 @@
         <v>44904.61438657407</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25739,7 +25739,7 @@
         <v>45140</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25796,7 +25796,7 @@
         <v>45155</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>45251</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>45014</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25967,7 +25967,7 @@
         <v>44886.5540625</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>45607.53498842593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>46080.49115740741</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26138,7 +26138,7 @@
         <v>45013</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26195,7 +26195,7 @@
         <v>44797</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26252,7 +26252,7 @@
         <v>44363.3569212963</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26309,7 +26309,7 @@
         <v>44981.65555555555</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26366,7 +26366,7 @@
         <v>45510</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26423,7 +26423,7 @@
         <v>44441</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26480,7 +26480,7 @@
         <v>45582.75208333333</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26537,7 +26537,7 @@
         <v>44722</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26594,7 +26594,7 @@
         <v>45618.83905092593</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26651,7 +26651,7 @@
         <v>44749.48328703704</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44628.26447916667</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26765,7 +26765,7 @@
         <v>45680.54049768519</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>44981.64929398148</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26879,7 +26879,7 @@
         <v>44511</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26936,7 +26936,7 @@
         <v>45469</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26993,7 +26993,7 @@
         <v>45734.62524305555</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44659.48269675926</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>45574.31206018518</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>45058</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>45762</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27278,7 +27278,7 @@
         <v>45404.75238425926</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27335,7 +27335,7 @@
         <v>45587</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>45090</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>45743.74923611111</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>45302</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44641.86440972222</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>45775.41575231482</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>45635</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>45665.32594907407</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>45224.58638888889</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44841</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>45539</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44875.85422453703</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>45224</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>44652.35287037037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>45762.69204861111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45769.64644675926</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45665.83747685186</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44341.46094907408</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45678.55563657408</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44935.30733796296</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>45436</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>45736.6059837963</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>44811</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>44837</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>45457.33523148148</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>45531</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28837,7 +28837,7 @@
         <v>45364.69334490741</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45364.69854166666</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45300</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45722.31386574074</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>45740</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>45737.36127314815</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>45216</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45742.27975694444</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>45341</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45749.45077546296</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>45716.44537037037</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>45754</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29521,7 +29521,7 @@
         <v>45184</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29578,7 +29578,7 @@
         <v>45310</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29635,7 +29635,7 @@
         <v>45775.7565625</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45784.29537037037</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29749,7 +29749,7 @@
         <v>45785.30276620371</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>45791.68216435185</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29863,7 +29863,7 @@
         <v>45791.8755787037</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29920,7 +29920,7 @@
         <v>45378.60840277778</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29977,7 +29977,7 @@
         <v>45791.67892361111</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>45791.87671296296</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>45574.64503472222</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>45791.6762037037</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>44508.47201388889</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>45434.36398148148</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>45336.60148148148</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>45804</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>45804</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
